--- a/data/factor_data/regression_stats/stats_gme.xlsx
+++ b/data/factor_data/regression_stats/stats_gme.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.004417057879449821</v>
+        <v>-0.004190935216683419</v>
       </c>
       <c r="C2">
-        <v>-3.656952318552663</v>
+        <v>-1.864884042380015</v>
       </c>
       <c r="D2">
-        <v>-0.004244808564198847</v>
+        <v>-0.003823808802766396</v>
       </c>
       <c r="E2">
-        <v>-3.613882951811033</v>
+        <v>-1.771942886362558</v>
       </c>
       <c r="F2">
-        <v>-0.004270810362786434</v>
+        <v>-0.00386555110504529</v>
       </c>
       <c r="G2">
-        <v>-3.641791004843216</v>
+        <v>-1.809121413857714</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.182414886667459</v>
+        <v>1.294465967825051</v>
       </c>
       <c r="C3">
-        <v>9.212042297074685</v>
+        <v>6.650415018768273</v>
       </c>
       <c r="D3">
-        <v>1.03888898123117</v>
+        <v>1.14783674701888</v>
       </c>
       <c r="E3">
-        <v>7.823476943488973</v>
+        <v>5.543081676641497</v>
       </c>
       <c r="F3">
-        <v>1.08033992072782</v>
+        <v>1.215942554589251</v>
       </c>
       <c r="G3">
-        <v>7.527989671038509</v>
+        <v>5.23763602238907</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1.096486275731416</v>
+        <v>1.333198001001605</v>
       </c>
       <c r="E4">
-        <v>4.958326605614401</v>
+        <v>4.238957299013866</v>
       </c>
       <c r="F4">
-        <v>1.176394342146942</v>
+        <v>1.412536978427402</v>
       </c>
       <c r="G4">
-        <v>5.404406281341888</v>
+        <v>4.077027637234247</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>0.2310351993916414</v>
+        <v>0.100220871378158</v>
       </c>
       <c r="E5">
-        <v>1.018236090362702</v>
+        <v>0.3083311299381575</v>
       </c>
       <c r="F5">
-        <v>0.04172247140419875</v>
+        <v>-0.06161453580091429</v>
       </c>
       <c r="G5">
-        <v>0.1513738186926537</v>
+        <v>-0.1347212556519566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0.3278837481997023</v>
+        <v>-0.3382914999983418</v>
       </c>
       <c r="G6">
-        <v>0.8942150073563075</v>
+        <v>-0.5229891817675932</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>0.5767110787704531</v>
+        <v>0.9413791804883688</v>
       </c>
       <c r="G7">
-        <v>1.40257233635429</v>
+        <v>1.244388060734798</v>
       </c>
     </row>
   </sheetData>

--- a/data/factor_data/regression_stats/stats_gme.xlsx
+++ b/data/factor_data/regression_stats/stats_gme.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.004190935216683419</v>
+        <v>0.00267498579215037</v>
       </c>
       <c r="C2">
-        <v>-1.864884042380015</v>
+        <v>0.6352735212432973</v>
       </c>
       <c r="D2">
-        <v>-0.003823808802766396</v>
+        <v>0.003072541809762168</v>
       </c>
       <c r="E2">
-        <v>-1.771942886362558</v>
+        <v>0.724977336043295</v>
       </c>
       <c r="F2">
-        <v>-0.00386555110504529</v>
+        <v>0.001768875632400184</v>
       </c>
       <c r="G2">
-        <v>-1.809121413857714</v>
+        <v>0.4973170665571978</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.294465967825051</v>
+        <v>0.9233280565371982</v>
       </c>
       <c r="C3">
-        <v>6.650415018768273</v>
+        <v>2.82382046962001</v>
       </c>
       <c r="D3">
-        <v>1.14783674701888</v>
+        <v>0.6783630689003087</v>
       </c>
       <c r="E3">
-        <v>5.543081676641497</v>
+        <v>1.722600762223739</v>
       </c>
       <c r="F3">
-        <v>1.215942554589251</v>
+        <v>1.263967269759293</v>
       </c>
       <c r="G3">
-        <v>5.23763602238907</v>
+        <v>5.177536567268306</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1.333198001001605</v>
+        <v>2.219151362313662</v>
       </c>
       <c r="E4">
-        <v>4.238957299013866</v>
+        <v>3.270366477405018</v>
       </c>
       <c r="F4">
-        <v>1.412536978427402</v>
+        <v>3.010063690644587</v>
       </c>
       <c r="G4">
-        <v>4.077027637234247</v>
+        <v>3.000108252435796</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>0.100220871378158</v>
+        <v>0.2413212940215096</v>
       </c>
       <c r="E5">
-        <v>0.3083311299381575</v>
+        <v>0.604264004518816</v>
       </c>
       <c r="F5">
-        <v>-0.06161453580091429</v>
+        <v>-1.620323595029811</v>
       </c>
       <c r="G5">
-        <v>-0.1347212556519566</v>
+        <v>-1.564914505087422</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>-0.3382914999983418</v>
+        <v>-0.3335772523837046</v>
       </c>
       <c r="G6">
-        <v>-0.5229891817675932</v>
+        <v>-0.3130334512754637</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>0.9413791804883688</v>
+        <v>7.986181908314377</v>
       </c>
       <c r="G7">
-        <v>1.244388060734798</v>
+        <v>1.927712613321446</v>
       </c>
     </row>
   </sheetData>
